--- a/user/static/users.xlsx
+++ b/user/static/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malak\Desktop\Projects\Django\server\src\user\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2584A344-92DE-46D4-9773-5021454D2CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B52038-595D-4CFF-BF98-C0DB2A67DCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>justID</t>
   </si>
@@ -71,6 +71,24 @@
   </si>
   <si>
     <t>mhabdallah1gg9@cit.just.edu.jo</t>
+  </si>
+  <si>
+    <t>mhabdallah191@cit.just.edu.jo</t>
+  </si>
+  <si>
+    <t>mhabdallah192@cit.just.edu.jo</t>
+  </si>
+  <si>
+    <t>mhabdallah193@cit.just.edu.jo</t>
+  </si>
+  <si>
+    <t>mhabdallah194@cit.just.edu.jo</t>
+  </si>
+  <si>
+    <t>mhabdallah195@cit.just.edu.jo</t>
+  </si>
+  <si>
+    <t>mhabdallah196@cit.just.edu.jo</t>
   </si>
 </sst>
 </file>
@@ -446,7 +464,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +501,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -496,8 +514,8 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -524,8 +542,8 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -541,8 +559,8 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -558,8 +576,8 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -575,8 +593,8 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -589,7 +607,7 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -597,6 +615,12 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{0D6C00B0-6E0A-43EC-AB73-152B930ABE59}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{7B943622-014A-4942-AD57-55776753E6EB}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{D47D9245-5912-477A-8B25-0730D650D754}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{BC704D99-3EDF-4FC7-915D-CC2C468E72AA}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{611080C4-522E-4B1F-8B0B-5FED9A304A11}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{CB0FBC09-ABF8-454A-AD02-002F4353D6FD}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{A1AC3B34-F51B-4C30-AC0F-F99A3BE00367}"/>
+    <hyperlink ref="E8" r:id="rId8" display="mhabdallah193@cit.just.edu.jo" xr:uid="{8361367C-3795-4172-8965-3D8D6082A05E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/user/static/users.xlsx
+++ b/user/static/users.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malak\Desktop\Projects\Django\server\src\user\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B52038-595D-4CFF-BF98-C0DB2A67DCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D636CFA8-AB18-44A4-AE32-5A1F34128C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>justID</t>
   </si>
@@ -34,80 +47,59 @@
     <t>type</t>
   </si>
   <si>
-    <t>ahmad</t>
-  </si>
-  <si>
-    <t>khaled</t>
-  </si>
-  <si>
-    <t>osama</t>
-  </si>
-  <si>
-    <t>anteel</t>
-  </si>
-  <si>
-    <t>salem</t>
-  </si>
-  <si>
-    <t>gamed</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
     <t>mhabdallah19@cit.just.edu.jo</t>
   </si>
   <si>
-    <t>mahmoud</t>
-  </si>
-  <si>
-    <t>mhabdallah1gg9@cit.just.edu.jo</t>
-  </si>
-  <si>
-    <t>mhabdallah191@cit.just.edu.jo</t>
-  </si>
-  <si>
-    <t>mhabdallah192@cit.just.edu.jo</t>
-  </si>
-  <si>
-    <t>mhabdallah193@cit.just.edu.jo</t>
-  </si>
-  <si>
-    <t>mhabdallah194@cit.just.edu.jo</t>
-  </si>
-  <si>
-    <t>mhabdallah195@cit.just.edu.jo</t>
-  </si>
-  <si>
-    <t>mhabdallah196@cit.just.edu.jo</t>
+    <t>Mahmoud  Abdallah</t>
+  </si>
+  <si>
+    <t>Mohammad Abu-Douleh</t>
+  </si>
+  <si>
+    <t>mbabudoleh19@cit.just.edu.jo</t>
+  </si>
+  <si>
+    <t>Haitham Jaradat</t>
+  </si>
+  <si>
+    <t>iijaradat19@cit.just.edu.jo</t>
+  </si>
+  <si>
+    <t>Ibrahim Jaradat</t>
+  </si>
+  <si>
+    <t>hijaradat18@eng.just.edu.jo</t>
+  </si>
+  <si>
+    <t>Dummy Volunteer</t>
+  </si>
+  <si>
+    <t>Dummy SpecialNeeds</t>
+  </si>
+  <si>
+    <t>dummy@cit.just.edu.jo</t>
+  </si>
+  <si>
+    <t>dummy@eng.just.edu.jod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -126,14 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -144,17 +129,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -461,15 +443,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -484,143 +468,369 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>140296</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>140046</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>137010</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>111111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>129158</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>999999</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>140296</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{0D6C00B0-6E0A-43EC-AB73-152B930ABE59}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{7B943622-014A-4942-AD57-55776753E6EB}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{D47D9245-5912-477A-8B25-0730D650D754}"/>
-    <hyperlink ref="E7" r:id="rId4" xr:uid="{BC704D99-3EDF-4FC7-915D-CC2C468E72AA}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{611080C4-522E-4B1F-8B0B-5FED9A304A11}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{CB0FBC09-ABF8-454A-AD02-002F4353D6FD}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{A1AC3B34-F51B-4C30-AC0F-F99A3BE00367}"/>
-    <hyperlink ref="E8" r:id="rId8" display="mhabdallah193@cit.just.edu.jo" xr:uid="{8361367C-3795-4172-8965-3D8D6082A05E}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{3FB92469-2E59-4158-9846-315BF65809C6}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{53590565-7CDE-490D-BDB3-1C76987286A6}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{DB255B77-6B4F-4CDE-9425-2286A60D290F}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{40422C15-65EB-401A-A748-F314D341783B}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{8AD0FD5B-1277-42A0-B576-27FE6901437C}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{68E7C7EF-05E0-4297-B8D1-BDAA2DA26B3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/user/static/users.xlsx
+++ b/user/static/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malak\Desktop\Projects\Django\server\src\user\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D636CFA8-AB18-44A4-AE32-5A1F34128C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182E61C1-B2AC-4367-8C9D-434ADA5C89B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>justID</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>dummy@eng.just.edu.jod</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>mkassab215@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +536,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
     </row>
@@ -831,6 +850,7 @@
     <hyperlink ref="D4" r:id="rId4" xr:uid="{40422C15-65EB-401A-A748-F314D341783B}"/>
     <hyperlink ref="D9" r:id="rId5" xr:uid="{8AD0FD5B-1277-42A0-B576-27FE6901437C}"/>
     <hyperlink ref="D5" r:id="rId6" xr:uid="{68E7C7EF-05E0-4297-B8D1-BDAA2DA26B3A}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{A3E8258C-BA9E-41EB-BD33-0D4FE3C401C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/user/static/users.xlsx
+++ b/user/static/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malak\Desktop\Projects\Django\server\src\user\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182E61C1-B2AC-4367-8C9D-434ADA5C89B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BB9C85-3504-47C1-BB7E-1931B9D52099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>

--- a/user/static/users.xlsx
+++ b/user/static/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malak\Desktop\Projects\Django\server\src\user\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BB9C85-3504-47C1-BB7E-1931B9D52099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A2A366-12EF-42A7-9F98-658088FA84A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>justID</t>
   </si>
@@ -56,9 +56,6 @@
     <t>mhabdallah19@cit.just.edu.jo</t>
   </si>
   <si>
-    <t>Mahmoud  Abdallah</t>
-  </si>
-  <si>
     <t>Mohammad Abu-Douleh</t>
   </si>
   <si>
@@ -93,6 +90,15 @@
   </si>
   <si>
     <t>mkassab215@gmail.com</t>
+  </si>
+  <si>
+    <t>Mahmoud Abdallah</t>
+  </si>
+  <si>
+    <t>mkassab215@outlook.com</t>
+  </si>
+  <si>
+    <t>lol</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +491,7 @@
         <v>140296</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -499,13 +505,13 @@
         <v>140046</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -513,13 +519,13 @@
         <v>137010</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -527,13 +533,13 @@
         <v>111111</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -541,30 +547,41 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7"/>
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>129158</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -575,13 +592,13 @@
         <v>999999</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -851,6 +868,7 @@
     <hyperlink ref="D9" r:id="rId5" xr:uid="{8AD0FD5B-1277-42A0-B576-27FE6901437C}"/>
     <hyperlink ref="D5" r:id="rId6" xr:uid="{68E7C7EF-05E0-4297-B8D1-BDAA2DA26B3A}"/>
     <hyperlink ref="D6" r:id="rId7" xr:uid="{A3E8258C-BA9E-41EB-BD33-0D4FE3C401C1}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{FCBA9DDB-50E9-4287-B4D5-07349D5B5972}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
